--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il15-Il2rb.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il15-Il2rb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.20821661142095</v>
+        <v>6.223902</v>
       </c>
       <c r="H2">
-        <v>6.20821661142095</v>
+        <v>12.447804</v>
       </c>
       <c r="I2">
-        <v>0.1647585933783495</v>
+        <v>0.1573600023520094</v>
       </c>
       <c r="J2">
-        <v>0.1647585933783495</v>
+        <v>0.111347698879666</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.247730321200046</v>
+        <v>0.345203</v>
       </c>
       <c r="N2">
-        <v>0.247730321200046</v>
+        <v>1.035609</v>
       </c>
       <c r="O2">
-        <v>0.341583538070508</v>
+        <v>0.3499363557939204</v>
       </c>
       <c r="P2">
-        <v>0.341583538070508</v>
+        <v>0.3499363557939205</v>
       </c>
       <c r="Q2">
-        <v>1.537963495226773</v>
+        <v>2.148509642106</v>
       </c>
       <c r="R2">
-        <v>1.537963495226773</v>
+        <v>12.891057852636</v>
       </c>
       <c r="S2">
-        <v>0.05627882325369678</v>
+        <v>0.05506598577078493</v>
       </c>
       <c r="T2">
-        <v>0.05627882325369678</v>
+        <v>0.03896460797198911</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,57 +599,57 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.20821661142095</v>
+        <v>6.223902</v>
       </c>
       <c r="H3">
-        <v>6.20821661142095</v>
+        <v>12.447804</v>
       </c>
       <c r="I3">
-        <v>0.1647585933783495</v>
+        <v>0.1573600023520094</v>
       </c>
       <c r="J3">
-        <v>0.1647585933783495</v>
+        <v>0.111347698879666</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.477510486947186</v>
+        <v>0.6094783333333335</v>
       </c>
       <c r="N3">
-        <v>0.477510486947186</v>
+        <v>1.828435</v>
       </c>
       <c r="O3">
-        <v>0.658416461929492</v>
+        <v>0.6178353806369558</v>
       </c>
       <c r="P3">
-        <v>0.658416461929492</v>
+        <v>0.6178353806369556</v>
       </c>
       <c r="Q3">
-        <v>2.964488537193227</v>
+        <v>3.79333341779</v>
       </c>
       <c r="R3">
-        <v>2.964488537193227</v>
+        <v>22.76000050674</v>
       </c>
       <c r="S3">
-        <v>0.1084797701246527</v>
+        <v>0.097222576950186</v>
       </c>
       <c r="T3">
-        <v>0.1084797701246527</v>
+        <v>0.06879454792036756</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.73469548922268</v>
+        <v>6.223902</v>
       </c>
       <c r="H4">
-        <v>0.73469548922268</v>
+        <v>12.447804</v>
       </c>
       <c r="I4">
-        <v>0.01949793361640478</v>
+        <v>0.1573600023520094</v>
       </c>
       <c r="J4">
-        <v>0.01949793361640478</v>
+        <v>0.111347698879666</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.247730321200046</v>
+        <v>0.03179233333333333</v>
       </c>
       <c r="N4">
-        <v>0.247730321200046</v>
+        <v>0.095377</v>
       </c>
       <c r="O4">
-        <v>0.341583538070508</v>
+        <v>0.03222826356912382</v>
       </c>
       <c r="P4">
-        <v>0.341583538070508</v>
+        <v>0.03222826356912382</v>
       </c>
       <c r="Q4">
-        <v>0.1820063495293595</v>
+        <v>0.197872367018</v>
       </c>
       <c r="R4">
-        <v>0.1820063495293595</v>
+        <v>1.187234202108</v>
       </c>
       <c r="S4">
-        <v>0.006660173149755439</v>
+        <v>0.005071439631038504</v>
       </c>
       <c r="T4">
-        <v>0.006660173149755439</v>
+        <v>0.003588542987309309</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.73469548922268</v>
+        <v>0.8282930000000001</v>
       </c>
       <c r="H5">
-        <v>0.73469548922268</v>
+        <v>2.484879</v>
       </c>
       <c r="I5">
-        <v>0.01949793361640478</v>
+        <v>0.02094187672430462</v>
       </c>
       <c r="J5">
-        <v>0.01949793361640478</v>
+        <v>0.02222766028806411</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.477510486947186</v>
+        <v>0.345203</v>
       </c>
       <c r="N5">
-        <v>0.477510486947186</v>
+        <v>1.035609</v>
       </c>
       <c r="O5">
-        <v>0.658416461929492</v>
+        <v>0.3499363557939204</v>
       </c>
       <c r="P5">
-        <v>0.658416461929492</v>
+        <v>0.3499363557939205</v>
       </c>
       <c r="Q5">
-        <v>0.350824800816623</v>
+        <v>0.285929228479</v>
       </c>
       <c r="R5">
-        <v>0.350824800816623</v>
+        <v>2.573363056311</v>
       </c>
       <c r="S5">
-        <v>0.01283776046664934</v>
+        <v>0.007328324024388683</v>
       </c>
       <c r="T5">
-        <v>0.01283776046664934</v>
+        <v>0.0077782664390304</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.596809883191639</v>
+        <v>0.8282930000000001</v>
       </c>
       <c r="H6">
-        <v>9.596809883191639</v>
+        <v>2.484879</v>
       </c>
       <c r="I6">
-        <v>0.254687778510389</v>
+        <v>0.02094187672430462</v>
       </c>
       <c r="J6">
-        <v>0.254687778510389</v>
+        <v>0.02222766028806411</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.247730321200046</v>
+        <v>0.6094783333333335</v>
       </c>
       <c r="N6">
-        <v>0.247730321200046</v>
+        <v>1.828435</v>
       </c>
       <c r="O6">
-        <v>0.341583538070508</v>
+        <v>0.6178353806369558</v>
       </c>
       <c r="P6">
-        <v>0.341583538070508</v>
+        <v>0.6178353806369556</v>
       </c>
       <c r="Q6">
-        <v>2.377420794858841</v>
+        <v>0.5048266371516668</v>
       </c>
       <c r="R6">
-        <v>2.377420794858841</v>
+        <v>4.543439734365001</v>
       </c>
       <c r="S6">
-        <v>0.08699715248689659</v>
+        <v>0.01293863237721295</v>
       </c>
       <c r="T6">
-        <v>0.08699715248689659</v>
+        <v>0.01373303495474503</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.596809883191639</v>
+        <v>0.8282930000000001</v>
       </c>
       <c r="H7">
-        <v>9.596809883191639</v>
+        <v>2.484879</v>
       </c>
       <c r="I7">
-        <v>0.254687778510389</v>
+        <v>0.02094187672430462</v>
       </c>
       <c r="J7">
-        <v>0.254687778510389</v>
+        <v>0.02222766028806411</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.477510486947186</v>
+        <v>0.03179233333333333</v>
       </c>
       <c r="N7">
-        <v>0.477510486947186</v>
+        <v>0.095377</v>
       </c>
       <c r="O7">
-        <v>0.658416461929492</v>
+        <v>0.03222826356912382</v>
       </c>
       <c r="P7">
-        <v>0.658416461929492</v>
+        <v>0.03222826356912382</v>
       </c>
       <c r="Q7">
-        <v>4.582577360462407</v>
+        <v>0.02633336715366667</v>
       </c>
       <c r="R7">
-        <v>4.582577360462407</v>
+        <v>0.237000304383</v>
       </c>
       <c r="S7">
-        <v>0.1676906260234925</v>
+        <v>0.0006749203227029886</v>
       </c>
       <c r="T7">
-        <v>0.1676906260234925</v>
+        <v>0.0007163588942886769</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,57 +909,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.1353745103769</v>
+        <v>10.755645</v>
       </c>
       <c r="H8">
-        <v>16.1353745103769</v>
+        <v>32.266935</v>
       </c>
       <c r="I8">
-        <v>0.428213410445758</v>
+        <v>0.2719368528774038</v>
       </c>
       <c r="J8">
-        <v>0.428213410445758</v>
+        <v>0.288633156671631</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.247730321200046</v>
+        <v>0.345203</v>
       </c>
       <c r="N8">
-        <v>0.247730321200046</v>
+        <v>1.035609</v>
       </c>
       <c r="O8">
-        <v>0.341583538070508</v>
+        <v>0.3499363557939204</v>
       </c>
       <c r="P8">
-        <v>0.341583538070508</v>
+        <v>0.3499363557939205</v>
       </c>
       <c r="Q8">
-        <v>3.997221510138704</v>
+        <v>3.712880920935</v>
       </c>
       <c r="R8">
-        <v>3.997221510138704</v>
+        <v>33.415928288415</v>
       </c>
       <c r="S8">
-        <v>0.1462706517893007</v>
+        <v>0.09516059130198615</v>
       </c>
       <c r="T8">
-        <v>0.1462706517893007</v>
+        <v>0.1010032350069663</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,119 +971,119 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.1353745103769</v>
+        <v>10.755645</v>
       </c>
       <c r="H9">
-        <v>16.1353745103769</v>
+        <v>32.266935</v>
       </c>
       <c r="I9">
-        <v>0.428213410445758</v>
+        <v>0.2719368528774038</v>
       </c>
       <c r="J9">
-        <v>0.428213410445758</v>
+        <v>0.288633156671631</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.477510486947186</v>
+        <v>0.6094783333333335</v>
       </c>
       <c r="N9">
-        <v>0.477510486947186</v>
+        <v>1.828435</v>
       </c>
       <c r="O9">
-        <v>0.658416461929492</v>
+        <v>0.6178353806369558</v>
       </c>
       <c r="P9">
-        <v>0.658416461929492</v>
+        <v>0.6178353806369556</v>
       </c>
       <c r="Q9">
-        <v>7.704810539525286</v>
+        <v>6.555332588525002</v>
       </c>
       <c r="R9">
-        <v>7.704810539525286</v>
+        <v>58.99799329672501</v>
       </c>
       <c r="S9">
-        <v>0.2819427586564573</v>
+        <v>0.1680122090067266</v>
       </c>
       <c r="T9">
-        <v>0.2819427586564573</v>
+        <v>0.1783277762166632</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.48115254148327</v>
+        <v>10.755645</v>
       </c>
       <c r="H10">
-        <v>4.48115254148327</v>
+        <v>32.266935</v>
       </c>
       <c r="I10">
-        <v>0.1189243925687725</v>
+        <v>0.2719368528774038</v>
       </c>
       <c r="J10">
-        <v>0.1189243925687725</v>
+        <v>0.288633156671631</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.247730321200046</v>
+        <v>0.03179233333333333</v>
       </c>
       <c r="N10">
-        <v>0.247730321200046</v>
+        <v>0.095377</v>
       </c>
       <c r="O10">
-        <v>0.341583538070508</v>
+        <v>0.03222826356912382</v>
       </c>
       <c r="P10">
-        <v>0.341583538070508</v>
+        <v>0.03222826356912382</v>
       </c>
       <c r="Q10">
-        <v>1.110117358448053</v>
+        <v>0.341947051055</v>
       </c>
       <c r="R10">
-        <v>1.110117358448053</v>
+        <v>3.077523459495001</v>
       </c>
       <c r="S10">
-        <v>0.04062261477652733</v>
+        <v>0.008764052568691016</v>
       </c>
       <c r="T10">
-        <v>0.04062261477652733</v>
+        <v>0.009302145448001535</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.48115254148327</v>
+        <v>16.464098</v>
       </c>
       <c r="H11">
-        <v>4.48115254148327</v>
+        <v>49.392294</v>
       </c>
       <c r="I11">
-        <v>0.1189243925687725</v>
+        <v>0.4162646680496759</v>
       </c>
       <c r="J11">
-        <v>0.1189243925687725</v>
+        <v>0.4418223711819316</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.477510486947186</v>
+        <v>0.345203</v>
       </c>
       <c r="N11">
-        <v>0.477510486947186</v>
+        <v>1.035609</v>
       </c>
       <c r="O11">
-        <v>0.658416461929492</v>
+        <v>0.3499363557939204</v>
       </c>
       <c r="P11">
-        <v>0.658416461929492</v>
+        <v>0.3499363557939205</v>
       </c>
       <c r="Q11">
-        <v>2.139797332168296</v>
+        <v>5.683456021894</v>
       </c>
       <c r="R11">
-        <v>2.139797332168296</v>
+        <v>51.151104197046</v>
       </c>
       <c r="S11">
-        <v>0.07830177779224513</v>
+        <v>0.1456661409830696</v>
       </c>
       <c r="T11">
-        <v>0.07830177779224513</v>
+        <v>0.154609710479634</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,117 +1154,489 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.524435680788407</v>
+        <v>16.464098</v>
       </c>
       <c r="H12">
-        <v>0.524435680788407</v>
+        <v>49.392294</v>
       </c>
       <c r="I12">
-        <v>0.01391789148032617</v>
+        <v>0.4162646680496759</v>
       </c>
       <c r="J12">
-        <v>0.01391789148032617</v>
+        <v>0.4418223711819316</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.247730321200046</v>
+        <v>0.6094783333333335</v>
       </c>
       <c r="N12">
-        <v>0.247730321200046</v>
+        <v>1.828435</v>
       </c>
       <c r="O12">
-        <v>0.341583538070508</v>
+        <v>0.6178353806369558</v>
       </c>
       <c r="P12">
-        <v>0.341583538070508</v>
+        <v>0.6178353806369556</v>
       </c>
       <c r="Q12">
-        <v>0.1299186196504769</v>
+        <v>10.03451100887667</v>
       </c>
       <c r="R12">
-        <v>0.1299186196504769</v>
+        <v>90.31059907989001</v>
       </c>
       <c r="S12">
-        <v>0.004754122614331192</v>
+        <v>0.2571830396301876</v>
       </c>
       <c r="T12">
-        <v>0.004754122614331192</v>
+        <v>0.272973492873111</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>16.464098</v>
+      </c>
+      <c r="H13">
+        <v>49.392294</v>
+      </c>
+      <c r="I13">
+        <v>0.4162646680496759</v>
+      </c>
+      <c r="J13">
+        <v>0.4418223711819316</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.03179233333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.095377</v>
+      </c>
+      <c r="O13">
+        <v>0.03222826356912382</v>
+      </c>
+      <c r="P13">
+        <v>0.03222826356912382</v>
+      </c>
+      <c r="Q13">
+        <v>0.5234320916486667</v>
+      </c>
+      <c r="R13">
+        <v>4.710888824838</v>
+      </c>
+      <c r="S13">
+        <v>0.01341548743641879</v>
+      </c>
+      <c r="T13">
+        <v>0.01423916782918655</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.640172333333333</v>
+      </c>
+      <c r="H14">
+        <v>13.920517</v>
+      </c>
+      <c r="I14">
+        <v>0.1173182883160857</v>
+      </c>
+      <c r="J14">
+        <v>0.1245213641832143</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.345203</v>
+      </c>
+      <c r="N14">
+        <v>1.035609</v>
+      </c>
+      <c r="O14">
+        <v>0.3499363557939204</v>
+      </c>
+      <c r="P14">
+        <v>0.3499363557939205</v>
+      </c>
+      <c r="Q14">
+        <v>1.601801409983667</v>
+      </c>
+      <c r="R14">
+        <v>14.416212689853</v>
+      </c>
+      <c r="S14">
+        <v>0.0410539342813115</v>
+      </c>
+      <c r="T14">
+        <v>0.04357455240076161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.640172333333333</v>
+      </c>
+      <c r="H15">
+        <v>13.920517</v>
+      </c>
+      <c r="I15">
+        <v>0.1173182883160857</v>
+      </c>
+      <c r="J15">
+        <v>0.1245213641832143</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.6094783333333335</v>
+      </c>
+      <c r="N15">
+        <v>1.828435</v>
+      </c>
+      <c r="O15">
+        <v>0.6178353806369558</v>
+      </c>
+      <c r="P15">
+        <v>0.6178353806369556</v>
+      </c>
+      <c r="Q15">
+        <v>2.828084500099445</v>
+      </c>
+      <c r="R15">
+        <v>25.452760500895</v>
+      </c>
+      <c r="S15">
+        <v>0.07248338931744493</v>
+      </c>
+      <c r="T15">
+        <v>0.07693370443756917</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.640172333333333</v>
+      </c>
+      <c r="H16">
+        <v>13.920517</v>
+      </c>
+      <c r="I16">
+        <v>0.1173182883160857</v>
+      </c>
+      <c r="J16">
+        <v>0.1245213641832143</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.03179233333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.095377</v>
+      </c>
+      <c r="O16">
+        <v>0.03222826356912382</v>
+      </c>
+      <c r="P16">
+        <v>0.03222826356912382</v>
+      </c>
+      <c r="Q16">
+        <v>0.1475219055454444</v>
+      </c>
+      <c r="R16">
+        <v>1.327697149909</v>
+      </c>
+      <c r="S16">
+        <v>0.003780964717329269</v>
+      </c>
+      <c r="T16">
+        <v>0.004013107344883485</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6398845000000001</v>
+      </c>
+      <c r="H17">
+        <v>1.279769</v>
+      </c>
+      <c r="I17">
+        <v>0.01617831168052042</v>
+      </c>
+      <c r="J17">
+        <v>0.01144774879549287</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.345203</v>
+      </c>
+      <c r="N17">
+        <v>1.035609</v>
+      </c>
+      <c r="O17">
+        <v>0.3499363557939204</v>
+      </c>
+      <c r="P17">
+        <v>0.3499363557939205</v>
+      </c>
+      <c r="Q17">
+        <v>0.2208900490535</v>
+      </c>
+      <c r="R17">
+        <v>1.325340294321</v>
+      </c>
+      <c r="S17">
+        <v>0.005661379432379533</v>
+      </c>
+      <c r="T17">
+        <v>0.004005983495539016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.524435680788407</v>
-      </c>
-      <c r="H13">
-        <v>0.524435680788407</v>
-      </c>
-      <c r="I13">
-        <v>0.01391789148032617</v>
-      </c>
-      <c r="J13">
-        <v>0.01391789148032617</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.477510486947186</v>
-      </c>
-      <c r="N13">
-        <v>0.477510486947186</v>
-      </c>
-      <c r="O13">
-        <v>0.658416461929492</v>
-      </c>
-      <c r="P13">
-        <v>0.658416461929492</v>
-      </c>
-      <c r="Q13">
-        <v>0.2504235373057512</v>
-      </c>
-      <c r="R13">
-        <v>0.2504235373057512</v>
-      </c>
-      <c r="S13">
-        <v>0.009163768865994975</v>
-      </c>
-      <c r="T13">
-        <v>0.009163768865994975</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.6398845000000001</v>
+      </c>
+      <c r="H18">
+        <v>1.279769</v>
+      </c>
+      <c r="I18">
+        <v>0.01617831168052042</v>
+      </c>
+      <c r="J18">
+        <v>0.01144774879549287</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.6094783333333335</v>
+      </c>
+      <c r="N18">
+        <v>1.828435</v>
+      </c>
+      <c r="O18">
+        <v>0.6178353806369558</v>
+      </c>
+      <c r="P18">
+        <v>0.6178353806369556</v>
+      </c>
+      <c r="Q18">
+        <v>0.3899957385858335</v>
+      </c>
+      <c r="R18">
+        <v>2.339974431515</v>
+      </c>
+      <c r="S18">
+        <v>0.009995533355197643</v>
+      </c>
+      <c r="T18">
+        <v>0.007072824234499586</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.6398845000000001</v>
+      </c>
+      <c r="H19">
+        <v>1.279769</v>
+      </c>
+      <c r="I19">
+        <v>0.01617831168052042</v>
+      </c>
+      <c r="J19">
+        <v>0.01144774879549287</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.03179233333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.095377</v>
+      </c>
+      <c r="O19">
+        <v>0.03222826356912382</v>
+      </c>
+      <c r="P19">
+        <v>0.03222826356912382</v>
+      </c>
+      <c r="Q19">
+        <v>0.02034342131883334</v>
+      </c>
+      <c r="R19">
+        <v>0.122060527913</v>
+      </c>
+      <c r="S19">
+        <v>0.0005213988929432466</v>
+      </c>
+      <c r="T19">
+        <v>0.0003689410654542639</v>
       </c>
     </row>
   </sheetData>
